--- a/LAMBDASA-DEMO-PRESENTATION-DATAFRAMES-CSV.xlsx
+++ b/LAMBDASA-DEMO-PRESENTATION-DATAFRAMES-CSV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="161">
   <si>
     <t>^</t>
   </si>
@@ -55,6 +61,15 @@
     <t>S</t>
   </si>
   <si>
+    <t>LAMBDA</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
     <t>TAG(S)</t>
   </si>
   <si>
@@ -188,13 +203,322 @@
   </si>
   <si>
     <t>#=$@</t>
+  </si>
+  <si>
+    <t>(P)</t>
+  </si>
+  <si>
+    <t>(S)</t>
+  </si>
+  <si>
+    <t>(T)</t>
+  </si>
+  <si>
+    <t>(N)</t>
+  </si>
+  <si>
+    <t>(D)</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Seem</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>In computer science, declarative programming is a programming paradigm, a style of building the structure and elements of computer programs, that expresses the logic of a computation without describing its control flow.</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>(L)</t>
+  </si>
+  <si>
+    <t>APPS</t>
+  </si>
+  <si>
+    <t>PHYSICAL</t>
+  </si>
+  <si>
+    <t>DATA LINK</t>
+  </si>
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>TRANSPORT</t>
+  </si>
+  <si>
+    <t>SESSION</t>
+  </si>
+  <si>
+    <t>PRESENTATION</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>ligula</t>
+  </si>
+  <si>
+    <t>widgets</t>
+  </si>
+  <si>
+    <t>ligulapi</t>
+  </si>
+  <si>
+    <t>hubs</t>
+  </si>
+  <si>
+    <t>ligugit</t>
+  </si>
+  <si>
+    <t>ligudoc</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>ligulapass</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>WebSockets</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Virtualization</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>SERVICES</t>
+  </si>
+  <si>
+    <t>OPS</t>
+  </si>
+  <si>
+    <t>LINKED DATA</t>
+  </si>
+  <si>
+    <t>COMPUTE</t>
+  </si>
+  <si>
+    <t>DATA API</t>
+  </si>
+  <si>
+    <t>LANG: TOSCA</t>
+  </si>
+  <si>
+    <t>PUPPET</t>
+  </si>
+  <si>
+    <t>CHEF</t>
+  </si>
+  <si>
+    <t>ANSIBLE</t>
+  </si>
+  <si>
+    <t>APIGEE</t>
+  </si>
+  <si>
+    <t>FALCOR</t>
+  </si>
+  <si>
+    <t>GRAPHQL</t>
+  </si>
+  <si>
+    <t>LANG:</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>JSON-LD</t>
+  </si>
+  <si>
+    <t>XML/BINARY</t>
+  </si>
+  <si>
+    <t>CFORMATION</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>MINION</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>#=</t>
+  </si>
+  <si>
+    <t>$@</t>
+  </si>
+  <si>
+    <t>JSONPATH</t>
+  </si>
+  <si>
+    <t>CYPHER</t>
+  </si>
+  <si>
+    <t>(G)</t>
+  </si>
+  <si>
+    <t>(I)</t>
+  </si>
+  <si>
+    <t>(U)</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>USERVICES</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>WEARABLES</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>GRAPH</t>
+  </si>
+  <si>
+    <t>SOCIAL</t>
+  </si>
+  <si>
+    <t>FIT</t>
+  </si>
+  <si>
+    <t>B2B</t>
+  </si>
+  <si>
+    <t>B2C</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>NATIVE</t>
+  </si>
+  <si>
+    <t>|#$|</t>
+  </si>
+  <si>
+    <t>"-::+"</t>
+  </si>
+  <si>
+    <t>ITGO</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>$.R.e</t>
+  </si>
+  <si>
+    <t>.a.c.[T]</t>
+  </si>
+  <si>
+    <t>.a.z.*</t>
+  </si>
+  <si>
+    <t>^  ^</t>
+  </si>
+  <si>
+    <t>(@)(#)</t>
+  </si>
+  <si>
+    <t>&gt;&lt;</t>
+  </si>
+  <si>
+    <t>TAZ</t>
+  </si>
+  <si>
+    <t>PERONALIZED</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>COMMUNITY</t>
+  </si>
+  <si>
+    <t>3RD PARTY APPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,6 +547,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Source Code Pro Bold"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Source Code Pro Bold"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Source Code Pro Bold"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -333,10 +672,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -348,8 +764,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -395,6 +832,43 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -440,6 +914,43 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -822,7 +1333,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -830,7 +1341,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -838,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -846,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -854,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -862,7 +1373,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -929,6 +1440,675 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="A1:M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="32">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="32">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="32">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="32">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="32">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="32">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="32">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="32">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="32">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="32">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="32">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="32">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="32">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="61">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="61">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="32">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="46">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="46">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="32">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="46">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="46">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="46">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="46">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="46">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="46">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="32">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -984,13 +2164,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -998,10 +2178,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1009,10 +2189,10 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1112,7 +2292,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" x14ac:dyDescent="0"/>
@@ -1163,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1177,16 +2357,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1197,89 +2377,120 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="46">
       <c r="A5" s="1">
         <v>8</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="46">
       <c r="A6" s="1">
         <v>7</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="46">
       <c r="A8" s="1">
         <v>5</v>
       </c>
+      <c r="B8"/>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8"/>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="46">
       <c r="A9" s="1">
         <v>4</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1287,16 +2498,16 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1307,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1318,13 +2529,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1384,7 +2595,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I12"/>
+      <selection activeCell="I6" sqref="I6:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" x14ac:dyDescent="0"/>
@@ -1435,13 +2646,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1449,16 +2660,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1471,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1479,13 +2690,13 @@
         <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1493,38 +2704,38 @@
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>42</v>
+      <c r="I8" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>47</v>
+      <c r="I9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>2</v>
@@ -1534,11 +2745,11 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>43</v>
+      <c r="I10" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>3</v>
@@ -1548,16 +2759,16 @@
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>49</v>
+      <c r="I11" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>48</v>
+      <c r="I12" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1616,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" x14ac:dyDescent="0"/>
@@ -1668,13 +2879,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1682,16 +2893,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1699,16 +2910,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1716,13 +2927,13 @@
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1730,13 +2941,13 @@
         <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1744,27 +2955,27 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>47</v>
+      <c r="I8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>2</v>
@@ -1775,13 +2986,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>3</v>
@@ -1792,18 +3003,18 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>48</v>
+      <c r="I11" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1812,6 +3023,1216 @@
       </c>
     </row>
     <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="32" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="4" width="10.625" style="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="32" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="4" width="10.625" style="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1"/>
+    <col min="9" max="9" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="32" customHeight="1">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:J11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="32" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="4" width="10.625" style="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="32" customHeight="1">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="32">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="32">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="32">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="32">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="32">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="32">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="32">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="32">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="32">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="32">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="32">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="32">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="32">
       <c r="A13" s="1">
         <v>0</v>
       </c>

--- a/LAMBDASA-DEMO-PRESENTATION-DATAFRAMES-CSV.xlsx
+++ b/LAMBDASA-DEMO-PRESENTATION-DATAFRAMES-CSV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="164">
   <si>
     <t>^</t>
   </si>
@@ -512,13 +512,22 @@
   </si>
   <si>
     <t>3RD PARTY APPS</t>
+  </si>
+  <si>
+    <t>VE|LI</t>
+  </si>
+  <si>
+    <t>GULA</t>
+  </si>
+  <si>
+    <t>ACTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -562,6 +571,16 @@
       <color theme="1"/>
       <name val="Source Code Pro Bold"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Source Code Pro Semibold"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Source Code Pro Semibold"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -580,7 +599,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -746,8 +765,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -785,8 +812,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -869,6 +902,10 @@
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -951,6 +988,10 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1452,14 +1493,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="A1:M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32">
@@ -1750,11 +1791,15 @@
       <c r="F12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="1"/>
+      <c r="I12" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
@@ -1814,7 +1859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>

--- a/LAMBDASA-DEMO-PRESENTATION-DATAFRAMES-CSV.xlsx
+++ b/LAMBDASA-DEMO-PRESENTATION-DATAFRAMES-CSV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="208">
   <si>
     <t>^</t>
   </si>
@@ -521,16 +522,198 @@
   </si>
   <si>
     <t>ACTI</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Subjective</t>
+  </si>
+  <si>
+    <t>You are</t>
+  </si>
+  <si>
+    <t>Helpless</t>
+  </si>
+  <si>
+    <t>Overwhelmed</t>
+  </si>
+  <si>
+    <t>Confused</t>
+  </si>
+  <si>
+    <t>Brainwashed</t>
+  </si>
+  <si>
+    <t>Radical</t>
+  </si>
+  <si>
+    <t>Extremist</t>
+  </si>
+  <si>
+    <t>Black &amp; White</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Chaos</t>
+  </si>
+  <si>
+    <t>About self</t>
+  </si>
+  <si>
+    <t>About others</t>
+  </si>
+  <si>
+    <t>Depressed</t>
+  </si>
+  <si>
+    <t>Sociopath</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>As a result</t>
+  </si>
+  <si>
+    <t>Enslaved</t>
+  </si>
+  <si>
+    <t>Inferior</t>
+  </si>
+  <si>
+    <t>Hippie</t>
+  </si>
+  <si>
+    <t>Self-defeating, Suicidal</t>
+  </si>
+  <si>
+    <t>Defeated</t>
+  </si>
+  <si>
+    <t>Self-Deceived, Sadistic or Egomaniac</t>
+  </si>
+  <si>
+    <t>Excluding</t>
+  </si>
+  <si>
+    <t>Infants</t>
+  </si>
+  <si>
+    <t>Teenagers</t>
+  </si>
+  <si>
+    <t>Fragile</t>
+  </si>
+  <si>
+    <t>Victim</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Delusional</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>Manic Depressive</t>
+  </si>
+  <si>
+    <t>Clueless</t>
+  </si>
+  <si>
+    <t>Evil</t>
+  </si>
+  <si>
+    <t>Blindly Religious</t>
+  </si>
+  <si>
+    <t>Oppressed</t>
+  </si>
+  <si>
+    <t>Self-righteous, Sociopath</t>
+  </si>
+  <si>
+    <t>Psychopath, Narcissist or Machiavellian</t>
+  </si>
+  <si>
+    <t>Sheeple</t>
+  </si>
+  <si>
+    <t>Religiously Oppressed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -581,16 +764,90 @@
       <color theme="1"/>
       <name val="Source Code Pro Semibold"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -598,232 +855,500 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="173">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+  <cellStyles count="293">
+    <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
+    <cellStyle name="60% - Accent1" xfId="8" builtinId="32"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
@@ -906,10 +1431,68 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
@@ -992,7 +1575,70 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="6" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="5" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1493,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -2154,6 +2800,511 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="39"/>
+    <col min="2" max="2" width="10.625" style="43"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="36"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="20">
+      <c r="A3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="37"/>
+      <c r="B5" s="41">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="18">
+      <c r="A6" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="42">
+        <v>2</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="18">
+      <c r="A7" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="41">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="18">
+      <c r="A8" s="38"/>
+      <c r="B8" s="42">
+        <v>4</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="18">
+      <c r="A9" s="37"/>
+      <c r="B9" s="41">
+        <v>5</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="18">
+      <c r="A10" s="37"/>
+      <c r="B10" s="42">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="18">
+      <c r="A11" s="37"/>
+      <c r="B11" s="41">
+        <v>7</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="18">
+      <c r="A12" s="37"/>
+      <c r="B12" s="42">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="18">
+      <c r="A13" s="37"/>
+      <c r="B13" s="41">
+        <v>9</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="18">
+      <c r="A14" s="37"/>
+      <c r="B14" s="41">
+        <v>10</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="18">
+      <c r="A15" s="37"/>
+      <c r="B15" s="42">
+        <v>11</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="18">
+      <c r="A16" s="37"/>
+      <c r="B16" s="41">
+        <v>12</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="18">
+      <c r="A17" s="37"/>
+      <c r="B17" s="42">
+        <v>13</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="18">
+      <c r="A18" s="37"/>
+      <c r="B18" s="41">
+        <v>14</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" ht="18">
+      <c r="A19" s="37"/>
+      <c r="B19" s="42">
+        <v>15</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" ht="18">
+      <c r="A20" s="37"/>
+      <c r="B20" s="41">
+        <v>16</v>
+      </c>
+      <c r="C20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" ht="18">
+      <c r="A21" s="37"/>
+      <c r="B21" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
